--- a/协议/协议转换表.xlsx
+++ b/协议/协议转换表.xlsx
@@ -649,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -936,10 +936,10 @@
         <v>10000</v>
       </c>
       <c r="D27" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E27" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -966,10 +966,10 @@
         <v>10000</v>
       </c>
       <c r="D29" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E29" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -992,10 +992,10 @@
         <v>10000</v>
       </c>
       <c r="D31" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E31" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1052,10 +1052,10 @@
         <v>10000</v>
       </c>
       <c r="D35" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E35" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1082,10 +1082,10 @@
         <v>10000</v>
       </c>
       <c r="D37" s="2">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="E37" s="2">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1110,10 +1110,10 @@
         <v>10</v>
       </c>
       <c r="D39" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E39" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1138,10 +1138,10 @@
         <v>1000</v>
       </c>
       <c r="D41" s="2">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="E41" s="2">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1166,10 +1166,10 @@
         <v>10</v>
       </c>
       <c r="D43" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E43" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1194,10 +1194,10 @@
         <v>1000</v>
       </c>
       <c r="D45" s="2">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="E45" s="2">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
